--- a/data/new_posteriors/elementary_skills/complex_model/leak/unconstrained/results_model2b_leak_unconstrained.xlsx
+++ b/data/new_posteriors/elementary_skills/complex_model/leak/unconstrained/results_model2b_leak_unconstrained.xlsx
@@ -1682,7 +1682,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL3" t="n" s="87">
-        <v>0.9904549523405939</v>
+        <v>0.9901045163899503</v>
       </c>
       <c r="AM3" t="n" s="87">
         <v>0.6711843139241742</v>
@@ -1691,7 +1691,7 @@
         <v>0.9603344425319015</v>
       </c>
       <c r="AO3" t="n" s="87">
-        <v>0.9999855240962928</v>
+        <v>0.9999851034478694</v>
       </c>
       <c r="AP3" t="n" s="87">
         <v>0.7336675299573383</v>
@@ -1700,11 +1700,9 @@
         <v>0.9736644970425853</v>
       </c>
       <c r="AR3" t="n" s="87">
-        <v>0.9999773922890558</v>
-      </c>
-      <c r="AS3" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999766481779052</v>
+      </c>
+      <c r="AS3" s="87"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1830,9 +1828,7 @@
       <c r="AR4" t="n" s="87">
         <v>0.9999999351298405</v>
       </c>
-      <c r="AS4" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS4" s="87"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1958,9 +1954,7 @@
       <c r="AR5" t="n" s="87">
         <v>0.9999999998940781</v>
       </c>
-      <c r="AS5" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS5" s="87"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2086,9 +2080,7 @@
       <c r="AR6" t="n" s="87">
         <v>0.999999999994838</v>
       </c>
-      <c r="AS6" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS6" s="87"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2214,9 +2206,7 @@
       <c r="AR7" t="n" s="87">
         <v>0.9999999990847173</v>
       </c>
-      <c r="AS7" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS7" s="87"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2342,9 +2332,7 @@
       <c r="AR8" t="n" s="87">
         <v>0.9999788472280964</v>
       </c>
-      <c r="AS8" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS8" s="87"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2470,9 +2458,7 @@
       <c r="AR9" t="n" s="87">
         <v>0.9999999999996751</v>
       </c>
-      <c r="AS9" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS9" s="87"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2598,9 +2584,7 @@
       <c r="AR10" t="n" s="87">
         <v>0.9999999989160357</v>
       </c>
-      <c r="AS10" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS10" s="87"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2726,9 +2710,7 @@
       <c r="AR11" t="n" s="87">
         <v>0.9999999970431882</v>
       </c>
-      <c r="AS11" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS11" s="87"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2854,9 +2836,7 @@
       <c r="AR12" t="n" s="87">
         <v>0.9999999999996751</v>
       </c>
-      <c r="AS12" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS12" s="87"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2962,7 +2942,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL13" t="n" s="87">
-        <v>0.7766085300553007</v>
+        <v>0.764501626832921</v>
       </c>
       <c r="AM13" t="n" s="87">
         <v>0.7272724739978641</v>
@@ -2971,7 +2951,7 @@
         <v>0.984305738473174</v>
       </c>
       <c r="AO13" t="n" s="87">
-        <v>0.9894811941102452</v>
+        <v>0.98887304925378</v>
       </c>
       <c r="AP13" t="n" s="87">
         <v>0.9689914152152916</v>
@@ -2980,11 +2960,9 @@
         <v>0.9999772912068691</v>
       </c>
       <c r="AR13" t="n" s="87">
-        <v>0.9999937560765843</v>
-      </c>
-      <c r="AS13" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999933904125576</v>
+      </c>
+      <c r="AS13" s="87"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3110,9 +3088,7 @@
       <c r="AR14" t="n" s="87">
         <v>0.9895823216657234</v>
       </c>
-      <c r="AS14" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS14" s="87"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3238,9 +3214,7 @@
       <c r="AR15" t="n" s="87">
         <v>0.9999928724751814</v>
       </c>
-      <c r="AS15" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS15" s="87"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3366,9 +3340,7 @@
       <c r="AR16" t="n" s="87">
         <v>0.9999994295793068</v>
       </c>
-      <c r="AS16" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS16" s="87"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3494,9 +3466,7 @@
       <c r="AR17" t="n" s="87">
         <v>0.9999999989413981</v>
       </c>
-      <c r="AS17" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS17" s="87"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3622,9 +3592,7 @@
       <c r="AR18" t="n" s="87">
         <v>0.9999999999999042</v>
       </c>
-      <c r="AS18" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS18" s="87"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3750,9 +3718,7 @@
       <c r="AR19" t="n" s="87">
         <v>0.999999999994838</v>
       </c>
-      <c r="AS19" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS19" s="87"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3878,9 +3844,7 @@
       <c r="AR20" t="n" s="87">
         <v>0.9999999998940781</v>
       </c>
-      <c r="AS20" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS20" s="87"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4006,9 +3970,7 @@
       <c r="AR21" t="n" s="87">
         <v>0.9999999999999946</v>
       </c>
-      <c r="AS21" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS21" s="87"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4134,9 +4096,7 @@
       <c r="AR22" t="n" s="87">
         <v>0.9999999999940787</v>
       </c>
-      <c r="AS22" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS22" s="87"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4262,9 +4222,7 @@
       <c r="AR23" t="n" s="87">
         <v>0.999999999998255</v>
       </c>
-      <c r="AS23" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS23" s="87"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4390,9 +4348,7 @@
       <c r="AR24" t="n" s="87">
         <v>0.9999999999940787</v>
       </c>
-      <c r="AS24" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS24" s="87"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4518,9 +4474,7 @@
       <c r="AR25" t="n" s="87">
         <v>0.9999999996766913</v>
       </c>
-      <c r="AS25" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS25" s="87"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4626,7 +4580,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL26" t="n" s="87">
-        <v>0.9103016361471207</v>
+        <v>0.898074711116127</v>
       </c>
       <c r="AM26" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -4635,7 +4589,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO26" t="n" s="87">
-        <v>0.9996294199983898</v>
+        <v>0.9995830890126469</v>
       </c>
       <c r="AP26" t="n" s="87">
         <v>0.7384399279686993</v>
@@ -4644,11 +4598,9 @@
         <v>0.9609488876402354</v>
       </c>
       <c r="AR26" t="n" s="87">
-        <v>0.9995745309500347</v>
-      </c>
-      <c r="AS26" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9995212965582014</v>
+      </c>
+      <c r="AS26" s="87"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4754,7 +4706,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL27" t="n" s="87">
-        <v>0.7910398163470355</v>
+        <v>0.7849576363213985</v>
       </c>
       <c r="AM27" t="n" s="87">
         <v>0.7499250842137168</v>
@@ -4763,7 +4715,7 @@
         <v>0.9894544331364219</v>
       </c>
       <c r="AO27" t="n" s="87">
-        <v>0.9887004502698821</v>
+        <v>0.9883328669986994</v>
       </c>
       <c r="AP27" t="n" s="87">
         <v>0.8545481967705594</v>
@@ -4772,11 +4724,9 @@
         <v>0.9954696871016325</v>
       </c>
       <c r="AR27" t="n" s="87">
-        <v>0.9845738564301959</v>
-      </c>
-      <c r="AS27" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9841327015564763</v>
+      </c>
+      <c r="AS27" s="87"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4902,9 +4852,7 @@
       <c r="AR28" t="n" s="87">
         <v>0.9999999973294619</v>
       </c>
-      <c r="AS28" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS28" s="87"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5030,9 +4978,7 @@
       <c r="AR29" t="n" s="87">
         <v>0.9999926138973231</v>
       </c>
-      <c r="AS29" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS29" s="87"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5138,7 +5084,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL30" t="n" s="87">
-        <v>0.8568178720895426</v>
+        <v>0.8354918886498807</v>
       </c>
       <c r="AM30" t="n" s="87">
         <v>0.6484987364743886</v>
@@ -5147,7 +5093,7 @@
         <v>0.9277284338321918</v>
       </c>
       <c r="AO30" t="n" s="87">
-        <v>0.9780050383330899</v>
+        <v>0.9743034827669923</v>
       </c>
       <c r="AP30" t="n" s="87">
         <v>0.6276236141834872</v>
@@ -5156,11 +5102,9 @@
         <v>0.773384533919392</v>
       </c>
       <c r="AR30" t="n" s="87">
-        <v>0.6922916454050189</v>
-      </c>
-      <c r="AS30" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.6582427640383659</v>
+      </c>
+      <c r="AS30" s="87"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5286,9 +5230,7 @@
       <c r="AR31" t="n" s="87">
         <v>0.9999999999997169</v>
       </c>
-      <c r="AS31" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS31" s="87"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5394,7 +5336,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL32" t="n" s="87">
-        <v>0.7722267467410509</v>
+        <v>0.7359064759705854</v>
       </c>
       <c r="AM32" t="n" s="87">
         <v>0.6484987364743886</v>
@@ -5403,7 +5345,7 @@
         <v>0.9238036680612662</v>
       </c>
       <c r="AO32" t="n" s="87">
-        <v>0.9548625644368216</v>
+        <v>0.9460555210514172</v>
       </c>
       <c r="AP32" t="n" s="87">
         <v>0.6276236141834872</v>
@@ -5412,11 +5354,9 @@
         <v>0.7543788469502202</v>
       </c>
       <c r="AR32" t="n" s="87">
-        <v>0.5958876118335675</v>
-      </c>
-      <c r="AS32" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5519244154134764</v>
+      </c>
+      <c r="AS32" s="87"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5522,7 +5462,7 @@
         <v>0.5910419018442695</v>
       </c>
       <c r="AL33" t="n" s="87">
-        <v>0.5674225556252</v>
+        <v>0.5324624211962393</v>
       </c>
       <c r="AM33" t="n" s="87">
         <v>0.6281000319227784</v>
@@ -5531,7 +5471,7 @@
         <v>0.9234011405801325</v>
       </c>
       <c r="AO33" t="n" s="87">
-        <v>0.8886317314540358</v>
+        <v>0.8764236832919631</v>
       </c>
       <c r="AP33" t="n" s="87">
         <v>0.6133569063342668</v>
@@ -5540,11 +5480,9 @@
         <v>0.8546159091240091</v>
       </c>
       <c r="AR33" t="n" s="87">
-        <v>0.5435817714462416</v>
-      </c>
-      <c r="AS33" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5142032413760498</v>
+      </c>
+      <c r="AS33" s="87"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5650,7 +5588,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL34" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM34" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -5659,7 +5597,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO34" t="n" s="87">
-        <v>0.9487569939919785</v>
+        <v>0.9427149255169244</v>
       </c>
       <c r="AP34" t="n" s="87">
         <v>0.7442344979041973</v>
@@ -5668,11 +5606,9 @@
         <v>0.9494559608666142</v>
       </c>
       <c r="AR34" t="n" s="87">
-        <v>0.7968494434387198</v>
-      </c>
-      <c r="AS34" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7770879189398497</v>
+      </c>
+      <c r="AS34" s="87"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5778,7 +5714,7 @@
         <v>0.5569468382625822</v>
       </c>
       <c r="AL35" t="n" s="87">
-        <v>0.6009651536536863</v>
+        <v>0.5621199470473592</v>
       </c>
       <c r="AM35" t="n" s="87">
         <v>0.5873775219452745</v>
@@ -5787,7 +5723,7 @@
         <v>0.8364707612841252</v>
       </c>
       <c r="AO35" t="n" s="87">
-        <v>0.807382207955908</v>
+        <v>0.7821030842461619</v>
       </c>
       <c r="AP35" t="n" s="87">
         <v>0.45054996512048756</v>
@@ -5796,11 +5732,9 @@
         <v>0.44327291372864613</v>
       </c>
       <c r="AR35" t="n" s="87">
-        <v>0.17405041747321678</v>
-      </c>
-      <c r="AS35" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.15336436679240714</v>
+      </c>
+      <c r="AS35" s="87"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5906,7 +5840,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL36" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM36" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -5915,7 +5849,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO36" t="n" s="87">
-        <v>0.9421003492691465</v>
+        <v>0.9353268977120699</v>
       </c>
       <c r="AP36" t="n" s="87">
         <v>0.6638635943228971</v>
@@ -5924,11 +5858,9 @@
         <v>0.8501504517539126</v>
       </c>
       <c r="AR36" t="n" s="87">
-        <v>0.5137876649884032</v>
-      </c>
-      <c r="AS36" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4843107292726083</v>
+      </c>
+      <c r="AS36" s="87"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6034,7 +5966,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL37" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM37" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -6043,7 +5975,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO37" t="n" s="87">
-        <v>0.9487569939919785</v>
+        <v>0.9427149255169244</v>
       </c>
       <c r="AP37" t="n" s="87">
         <v>0.7442344979041973</v>
@@ -6052,11 +5984,9 @@
         <v>0.9494559608666142</v>
       </c>
       <c r="AR37" t="n" s="87">
-        <v>0.7968494434387198</v>
-      </c>
-      <c r="AS37" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7770879189398497</v>
+      </c>
+      <c r="AS37" s="87"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6162,7 +6092,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL38" t="n" s="87">
-        <v>0.8904385571084976</v>
+        <v>0.8793192028897459</v>
       </c>
       <c r="AM38" t="n" s="87">
         <v>0.714688455521799</v>
@@ -6171,7 +6101,7 @@
         <v>0.9776011756995372</v>
       </c>
       <c r="AO38" t="n" s="87">
-        <v>0.9995857214078947</v>
+        <v>0.9995468722778703</v>
       </c>
       <c r="AP38" t="n" s="87">
         <v>0.8727888012082836</v>
@@ -6180,11 +6110,9 @@
         <v>0.9976224332105086</v>
       </c>
       <c r="AR38" t="n" s="87">
-        <v>0.9995980546714386</v>
-      </c>
-      <c r="AS38" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9995587150046129</v>
+      </c>
+      <c r="AS38" s="87"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6290,7 +6218,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL39" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM39" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -6299,7 +6227,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO39" t="n" s="87">
-        <v>0.9470725916405935</v>
+        <v>0.9408442984591098</v>
       </c>
       <c r="AP39" t="n" s="87">
         <v>0.7442344979041973</v>
@@ -6308,11 +6236,9 @@
         <v>0.9485810380543762</v>
       </c>
       <c r="AR39" t="n" s="87">
-        <v>0.7889250111246071</v>
-      </c>
-      <c r="AS39" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7686164697237113</v>
+      </c>
+      <c r="AS39" s="87"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6418,7 +6344,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL40" t="n" s="87">
-        <v>0.7272406221017905</v>
+        <v>0.6925930145540353</v>
       </c>
       <c r="AM40" t="n" s="87">
         <v>0.6692773330273941</v>
@@ -6427,7 +6353,7 @@
         <v>0.9468492734386179</v>
       </c>
       <c r="AO40" t="n" s="87">
-        <v>0.9177768893821932</v>
+        <v>0.905226169419054</v>
       </c>
       <c r="AP40" t="n" s="87">
         <v>0.7324017167903641</v>
@@ -6436,11 +6362,9 @@
         <v>0.9330770032908886</v>
       </c>
       <c r="AR40" t="n" s="87">
-        <v>0.732058372167068</v>
-      </c>
-      <c r="AS40" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.702673538238933</v>
+      </c>
+      <c r="AS40" s="87"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6546,7 +6470,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL41" t="n" s="87">
-        <v>0.9860346901959969</v>
+        <v>0.9855859722829209</v>
       </c>
       <c r="AM41" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -6555,7 +6479,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO41" t="n" s="87">
-        <v>0.999999498298579</v>
+        <v>0.9999994839618669</v>
       </c>
       <c r="AP41" t="n" s="87">
         <v>0.9490286864729505</v>
@@ -6564,11 +6488,9 @@
         <v>0.9999262409912434</v>
       </c>
       <c r="AR41" t="n" s="87">
-        <v>0.9999999998373029</v>
-      </c>
-      <c r="AS41" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999998332629</v>
+      </c>
+      <c r="AS41" s="87"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6674,7 +6596,7 @@
         <v>0.6763525007752449</v>
       </c>
       <c r="AL42" t="n" s="87">
-        <v>0.8183904647877379</v>
+        <v>0.7986961241321079</v>
       </c>
       <c r="AM42" t="n" s="87">
         <v>0.6767248353625036</v>
@@ -6683,7 +6605,7 @@
         <v>0.9050125428785096</v>
       </c>
       <c r="AO42" t="n" s="87">
-        <v>0.9296615917584105</v>
+        <v>0.9206642492346483</v>
       </c>
       <c r="AP42" t="n" s="87">
         <v>0.5567136004994724</v>
@@ -6692,11 +6614,9 @@
         <v>0.6365804269595001</v>
       </c>
       <c r="AR42" t="n" s="87">
-        <v>0.42775857575631965</v>
-      </c>
-      <c r="AS42" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.3979911641722394</v>
+      </c>
+      <c r="AS42" s="87"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6802,7 +6722,7 @@
         <v>0.7429902792097742</v>
       </c>
       <c r="AL43" t="n" s="87">
-        <v>0.7407425645955318</v>
+        <v>0.7192212403854292</v>
       </c>
       <c r="AM43" t="n" s="87">
         <v>0.714688455521799</v>
@@ -6811,7 +6731,7 @@
         <v>0.9687131050782577</v>
       </c>
       <c r="AO43" t="n" s="87">
-        <v>0.9566854111268835</v>
+        <v>0.9528134790468318</v>
       </c>
       <c r="AP43" t="n" s="87">
         <v>0.7651263525357117</v>
@@ -6820,11 +6740,9 @@
         <v>0.9033720171491051</v>
       </c>
       <c r="AR43" t="n" s="87">
-        <v>0.6690639251473858</v>
-      </c>
-      <c r="AS43" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.6480640166904141</v>
+      </c>
+      <c r="AS43" s="87"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6930,7 +6848,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL44" t="n" s="87">
-        <v>0.7961463400098677</v>
+        <v>0.772251851832389</v>
       </c>
       <c r="AM44" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -6939,7 +6857,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO44" t="n" s="87">
-        <v>0.9846706588156164</v>
+        <v>0.9827863448563658</v>
       </c>
       <c r="AP44" t="n" s="87">
         <v>0.7442344979041973</v>
@@ -6948,11 +6866,9 @@
         <v>0.9540604183791417</v>
       </c>
       <c r="AR44" t="n" s="87">
-        <v>0.9291554338409783</v>
-      </c>
-      <c r="AS44" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9209878664765536</v>
+      </c>
+      <c r="AS44" s="87"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7058,7 +6974,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL45" t="n" s="87">
-        <v>0.7586153537260385</v>
+        <v>0.7388891224649358</v>
       </c>
       <c r="AM45" t="n" s="87">
         <v>0.7090663946807576</v>
@@ -7067,7 +6983,7 @@
         <v>0.9768743898307704</v>
       </c>
       <c r="AO45" t="n" s="87">
-        <v>0.9693228424979653</v>
+        <v>0.9666769297015254</v>
       </c>
       <c r="AP45" t="n" s="87">
         <v>0.763476484695941</v>
@@ -7076,11 +6992,9 @@
         <v>0.9662490972481083</v>
       </c>
       <c r="AR45" t="n" s="87">
-        <v>0.8659164356357303</v>
-      </c>
-      <c r="AS45" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8552056620791099</v>
+      </c>
+      <c r="AS45" s="87"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7186,7 +7100,7 @@
         <v>0.5781153970132678</v>
       </c>
       <c r="AL46" t="n" s="87">
-        <v>0.463697621005508</v>
+        <v>0.3873726062687838</v>
       </c>
       <c r="AM46" t="n" s="87">
         <v>0.5417562570716921</v>
@@ -7195,7 +7109,7 @@
         <v>0.4821554570299894</v>
       </c>
       <c r="AO46" t="n" s="87">
-        <v>0.13073097908470452</v>
+        <v>0.09740469056601869</v>
       </c>
       <c r="AP46" t="n" s="87">
         <v>0.3866058639844305</v>
@@ -7204,11 +7118,9 @@
         <v>0.1326286065455083</v>
       </c>
       <c r="AR46" t="n" s="87">
-        <v>0.009538342282159972</v>
-      </c>
-      <c r="AS46" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.007062463273012521</v>
+      </c>
+      <c r="AS46" s="87"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7314,7 +7226,7 @@
         <v>0.694295064976179</v>
       </c>
       <c r="AL47" t="n" s="87">
-        <v>0.8651144942183866</v>
+        <v>0.8453900099916172</v>
       </c>
       <c r="AM47" t="n" s="87">
         <v>0.6805047419454974</v>
@@ -7323,7 +7235,7 @@
         <v>0.8328732803368538</v>
       </c>
       <c r="AO47" t="n" s="87">
-        <v>0.9163829689130237</v>
+        <v>0.902489551114247</v>
       </c>
       <c r="AP47" t="n" s="87">
         <v>0.6597354019392146</v>
@@ -7332,11 +7244,9 @@
         <v>0.6233798853327779</v>
       </c>
       <c r="AR47" t="n" s="87">
-        <v>0.5518846391606222</v>
-      </c>
-      <c r="AS47" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5143053488172916</v>
+      </c>
+      <c r="AS47" s="87"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7442,7 +7352,7 @@
         <v>0.622365312985154</v>
       </c>
       <c r="AL48" t="n" s="87">
-        <v>0.7475333529463114</v>
+        <v>0.7199451334003403</v>
       </c>
       <c r="AM48" t="n" s="87">
         <v>0.6534908438322365</v>
@@ -7451,7 +7361,7 @@
         <v>0.8781711912591884</v>
       </c>
       <c r="AO48" t="n" s="87">
-        <v>0.9120977302082819</v>
+        <v>0.9021788331191977</v>
       </c>
       <c r="AP48" t="n" s="87">
         <v>0.5049991379107961</v>
@@ -7460,11 +7370,9 @@
         <v>0.5412262681243639</v>
       </c>
       <c r="AR48" t="n" s="87">
-        <v>0.364033131113843</v>
-      </c>
-      <c r="AS48" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.33718952616233977</v>
+      </c>
+      <c r="AS48" s="87"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7570,7 +7478,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL49" t="n" s="87">
-        <v>0.7115127797325356</v>
+        <v>0.6696527108798693</v>
       </c>
       <c r="AM49" t="n" s="87">
         <v>0.6484987364743886</v>
@@ -7579,7 +7487,7 @@
         <v>0.9238036680612662</v>
       </c>
       <c r="AO49" t="n" s="87">
-        <v>0.8591067296447609</v>
+        <v>0.834847661486732</v>
       </c>
       <c r="AP49" t="n" s="87">
         <v>0.6276236141834872</v>
@@ -7588,11 +7496,9 @@
         <v>0.73531306348872</v>
       </c>
       <c r="AR49" t="n" s="87">
-        <v>0.30603749082586035</v>
-      </c>
-      <c r="AS49" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.2692127929100673</v>
+      </c>
+      <c r="AS49" s="87"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7698,7 +7604,7 @@
         <v>0.6652901682248812</v>
       </c>
       <c r="AL50" t="n" s="87">
-        <v>0.5950897309270727</v>
+        <v>0.5403698754947696</v>
       </c>
       <c r="AM50" t="n" s="87">
         <v>0.6062047161124468</v>
@@ -7707,7 +7613,7 @@
         <v>0.8249206612751276</v>
       </c>
       <c r="AO50" t="n" s="87">
-        <v>0.6843388738931335</v>
+        <v>0.6337405664103971</v>
       </c>
       <c r="AP50" t="n" s="87">
         <v>0.5409107069709791</v>
@@ -7716,11 +7622,9 @@
         <v>0.5038815347212464</v>
       </c>
       <c r="AR50" t="n" s="87">
-        <v>0.1314200792143248</v>
-      </c>
-      <c r="AS50" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.10953909573798083</v>
+      </c>
+      <c r="AS50" s="87"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7826,7 +7730,7 @@
         <v>0.5773023006182886</v>
       </c>
       <c r="AL51" t="n" s="87">
-        <v>0.8613755451301413</v>
+        <v>0.836877605516928</v>
       </c>
       <c r="AM51" t="n" s="87">
         <v>0.6065147336635006</v>
@@ -7835,7 +7739,7 @@
         <v>0.4655020351534861</v>
       </c>
       <c r="AO51" t="n" s="87">
-        <v>0.6022909480228867</v>
+        <v>0.5559018468313013</v>
       </c>
       <c r="AP51" t="n" s="87">
         <v>0.33723076645983996</v>
@@ -7844,11 +7748,9 @@
         <v>0.13951300200757444</v>
       </c>
       <c r="AR51" t="n" s="87">
-        <v>0.11020802038717409</v>
-      </c>
-      <c r="AS51" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.09348977575300906</v>
+      </c>
+      <c r="AS51" s="87"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7954,7 +7856,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL52" t="n" s="87">
-        <v>0.7424349583631547</v>
+        <v>0.7154544497842177</v>
       </c>
       <c r="AM52" t="n" s="87">
         <v>0.6962727061705521</v>
@@ -7963,7 +7865,7 @@
         <v>0.9672437279554814</v>
       </c>
       <c r="AO52" t="n" s="87">
-        <v>0.9459723648577808</v>
+        <v>0.9392442336472094</v>
       </c>
       <c r="AP52" t="n" s="87">
         <v>0.67132759615902</v>
@@ -7972,11 +7874,9 @@
         <v>0.8588259075907883</v>
       </c>
       <c r="AR52" t="n" s="87">
-        <v>0.5275284356428768</v>
-      </c>
-      <c r="AS52" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4964568710083587</v>
+      </c>
+      <c r="AS52" s="87"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8102,9 +8002,7 @@
       <c r="AR53" t="n" s="87">
         <v>0.9999962898092465</v>
       </c>
-      <c r="AS53" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS53" s="87"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8230,9 +8128,7 @@
       <c r="AR54" t="n" s="87">
         <v>0.9999999248886139</v>
       </c>
-      <c r="AS54" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS54" s="87"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8338,7 +8234,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL55" t="n" s="87">
-        <v>0.8395110933043889</v>
+        <v>0.8351415762123879</v>
       </c>
       <c r="AM55" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -8347,7 +8243,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO55" t="n" s="87">
-        <v>0.9969263364879623</v>
+        <v>0.9968387805295817</v>
       </c>
       <c r="AP55" t="n" s="87">
         <v>0.8955851154788965</v>
@@ -8356,11 +8252,9 @@
         <v>0.99884026696634</v>
       </c>
       <c r="AR55" t="n" s="87">
-        <v>0.9988332827916586</v>
-      </c>
-      <c r="AS55" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9988043461666662</v>
+      </c>
+      <c r="AS55" s="87"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8486,9 +8380,7 @@
       <c r="AR56" t="n" s="87">
         <v>0.999999999994838</v>
       </c>
-      <c r="AS56" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS56" s="87"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8594,7 +8486,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL57" t="n" s="87">
-        <v>0.9077232588021555</v>
+        <v>0.9046278947495948</v>
       </c>
       <c r="AM57" t="n" s="87">
         <v>0.7520057770280867</v>
@@ -8603,7 +8495,7 @@
         <v>0.9899744868394582</v>
       </c>
       <c r="AO57" t="n" s="87">
-        <v>0.9997441318015828</v>
+        <v>0.9997366984958596</v>
       </c>
       <c r="AP57" t="n" s="87">
         <v>0.7977138779086667</v>
@@ -8612,11 +8504,9 @@
         <v>0.9885414174928199</v>
       </c>
       <c r="AR57" t="n" s="87">
-        <v>0.9980951099734291</v>
-      </c>
-      <c r="AS57" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.998032534237026</v>
+      </c>
+      <c r="AS57" s="87"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8742,9 +8632,7 @@
       <c r="AR58" t="n" s="87">
         <v>0.9999788472280964</v>
       </c>
-      <c r="AS58" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS58" s="87"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8850,7 +8738,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL59" t="n" s="87">
-        <v>0.9745686409192447</v>
+        <v>0.9727000841492265</v>
       </c>
       <c r="AM59" t="n" s="87">
         <v>0.7067659170765388</v>
@@ -8859,7 +8747,7 @@
         <v>0.9764396647293071</v>
       </c>
       <c r="AO59" t="n" s="87">
-        <v>0.9999917522726537</v>
+        <v>0.9999912332457452</v>
       </c>
       <c r="AP59" t="n" s="87">
         <v>0.7629994447151803</v>
@@ -8868,11 +8756,9 @@
         <v>0.98272230112991</v>
       </c>
       <c r="AR59" t="n" s="87">
-        <v>0.9999146375559579</v>
-      </c>
-      <c r="AS59" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999092661643046</v>
+      </c>
+      <c r="AS59" s="87"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8998,9 +8884,7 @@
       <c r="AR60" t="n" s="87">
         <v>0.9999999661104322</v>
       </c>
-      <c r="AS60" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS60" s="87"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9106,7 +8990,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL61" t="n" s="87">
-        <v>0.9502222261781826</v>
+        <v>0.9486827081682732</v>
       </c>
       <c r="AM61" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -9115,7 +8999,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO61" t="n" s="87">
-        <v>0.9999852658296773</v>
+        <v>0.9999848447894772</v>
       </c>
       <c r="AP61" t="n" s="87">
         <v>0.8955851154788965</v>
@@ -9124,11 +9008,9 @@
         <v>0.9992064438842495</v>
       </c>
       <c r="AR61" t="n" s="87">
-        <v>0.9999878617705188</v>
-      </c>
-      <c r="AS61" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999875603645902</v>
+      </c>
+      <c r="AS61" s="87"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9254,9 +9136,7 @@
       <c r="AR62" t="n" s="87">
         <v>0.9999989905225102</v>
       </c>
-      <c r="AS62" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS62" s="87"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9362,7 +9242,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL63" t="n" s="87">
-        <v>0.9770174525381609</v>
+        <v>0.976285970724062</v>
       </c>
       <c r="AM63" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -9371,7 +9251,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO63" t="n" s="87">
-        <v>0.9999984271236562</v>
+        <v>0.9999983821769017</v>
       </c>
       <c r="AP63" t="n" s="87">
         <v>0.8516755924826088</v>
@@ -9380,11 +9260,9 @@
         <v>0.9975200522359814</v>
       </c>
       <c r="AR63" t="n" s="87">
-        <v>0.9999993404147598</v>
-      </c>
-      <c r="AS63" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999993240363217</v>
+      </c>
+      <c r="AS63" s="87"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9510,9 +9388,7 @@
       <c r="AR64" t="n" s="87">
         <v>0.9999999806096705</v>
       </c>
-      <c r="AS64" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS64" s="87"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9618,7 +9494,7 @@
         <v>0.7429902792097743</v>
       </c>
       <c r="AL65" t="n" s="87">
-        <v>0.9694426255591992</v>
+        <v>0.9684778327903399</v>
       </c>
       <c r="AM65" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -9627,7 +9503,7 @@
         <v>0.9847145151232373</v>
       </c>
       <c r="AO65" t="n" s="87">
-        <v>0.9999920501138827</v>
+        <v>0.9999918229382139</v>
       </c>
       <c r="AP65" t="n" s="87">
         <v>0.9266708709195037</v>
@@ -9636,11 +9512,9 @@
         <v>0.9991402777572667</v>
       </c>
       <c r="AR65" t="n" s="87">
-        <v>0.9999999080091007</v>
-      </c>
-      <c r="AS65" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999057248347</v>
+      </c>
+      <c r="AS65" s="87"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9746,7 +9620,7 @@
         <v>0.7288768754737979</v>
       </c>
       <c r="AL66" t="n" s="87">
-        <v>0.7423510136695798</v>
+        <v>0.7030984260334987</v>
       </c>
       <c r="AM66" t="n" s="87">
         <v>0.6420389670797215</v>
@@ -9755,7 +9629,7 @@
         <v>0.9126043707302441</v>
       </c>
       <c r="AO66" t="n" s="87">
-        <v>0.9466487251265451</v>
+        <v>0.9363458667684462</v>
       </c>
       <c r="AP66" t="n" s="87">
         <v>0.6029617692534841</v>
@@ -9764,11 +9638,9 @@
         <v>0.7161183657421011</v>
       </c>
       <c r="AR66" t="n" s="87">
-        <v>0.5437619015313031</v>
-      </c>
-      <c r="AS66" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4988966954963121</v>
+      </c>
+      <c r="AS66" s="87"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9874,7 +9746,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL67" t="n" s="87">
-        <v>0.7419125816060322</v>
+        <v>0.7357223188530237</v>
       </c>
       <c r="AM67" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -9883,7 +9755,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO67" t="n" s="87">
-        <v>0.9740779133326789</v>
+        <v>0.9733568946349812</v>
       </c>
       <c r="AP67" t="n" s="87">
         <v>0.9458951482898039</v>
@@ -9892,11 +9764,9 @@
         <v>0.999851018139994</v>
       </c>
       <c r="AR67" t="n" s="87">
-        <v>0.9989665212010208</v>
-      </c>
-      <c r="AS67" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9989408856173653</v>
+      </c>
+      <c r="AS67" s="87"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -10002,7 +9872,7 @@
         <v>0.7390697294466428</v>
       </c>
       <c r="AL68" t="n" s="87">
-        <v>0.9398134159832526</v>
+        <v>0.9358205901888766</v>
       </c>
       <c r="AM68" t="n" s="87">
         <v>0.7250601357704712</v>
@@ -10011,7 +9881,7 @@
         <v>0.9770893146930396</v>
       </c>
       <c r="AO68" t="n" s="87">
-        <v>0.9999610102142678</v>
+        <v>0.9999585761207931</v>
       </c>
       <c r="AP68" t="n" s="87">
         <v>0.8789364860710966</v>
@@ -10020,11 +9890,9 @@
         <v>0.9952213354547003</v>
       </c>
       <c r="AR68" t="n" s="87">
-        <v>0.9999892595728624</v>
-      </c>
-      <c r="AS68" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999886730236079</v>
+      </c>
+      <c r="AS68" s="87"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10130,7 +9998,7 @@
         <v>0.7086131900546397</v>
       </c>
       <c r="AL69" t="n" s="87">
-        <v>0.8708787387825214</v>
+        <v>0.8549739730455377</v>
       </c>
       <c r="AM69" t="n" s="87">
         <v>0.6857562678293756</v>
@@ -10139,7 +10007,7 @@
         <v>0.9066971370099458</v>
       </c>
       <c r="AO69" t="n" s="87">
-        <v>0.9493819966933713</v>
+        <v>0.9431829739290092</v>
       </c>
       <c r="AP69" t="n" s="87">
         <v>0.5737425562219599</v>
@@ -10148,11 +10016,9 @@
         <v>0.6820258358766698</v>
       </c>
       <c r="AR69" t="n" s="87">
-        <v>0.6020957397075815</v>
-      </c>
-      <c r="AS69" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5724613863751311</v>
+      </c>
+      <c r="AS69" s="87"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10258,7 +10124,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL70" t="n" s="87">
-        <v>0.8430307473399228</v>
+        <v>0.8234128485005578</v>
       </c>
       <c r="AM70" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -10267,7 +10133,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO70" t="n" s="87">
-        <v>0.9966028475318124</v>
+        <v>0.9961795718363005</v>
       </c>
       <c r="AP70" t="n" s="87">
         <v>0.8108634850714026</v>
@@ -10276,11 +10142,9 @@
         <v>0.9874558740276969</v>
       </c>
       <c r="AR70" t="n" s="87">
-        <v>0.9931756502804572</v>
-      </c>
-      <c r="AS70" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9923279374345584</v>
+      </c>
+      <c r="AS70" s="87"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10386,7 +10250,7 @@
         <v>0.6474581096196576</v>
       </c>
       <c r="AL71" t="n" s="87">
-        <v>0.7270882797858403</v>
+        <v>0.709509149379128</v>
       </c>
       <c r="AM71" t="n" s="87">
         <v>0.659999696198546</v>
@@ -10395,7 +10259,7 @@
         <v>0.9409582730405237</v>
       </c>
       <c r="AO71" t="n" s="87">
-        <v>0.9519541415111781</v>
+        <v>0.9472762925357956</v>
       </c>
       <c r="AP71" t="n" s="87">
         <v>0.8109906881941955</v>
@@ -10404,11 +10268,9 @@
         <v>0.992444395848036</v>
       </c>
       <c r="AR71" t="n" s="87">
-        <v>0.98377875858512</v>
-      </c>
-      <c r="AS71" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9823391061977981</v>
+      </c>
+      <c r="AS71" s="87"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -10514,7 +10376,7 @@
         <v>0.7288768754737979</v>
       </c>
       <c r="AL72" t="n" s="87">
-        <v>0.9186005617517998</v>
+        <v>0.905060670954698</v>
       </c>
       <c r="AM72" t="n" s="87">
         <v>0.6621474483112517</v>
@@ -10523,7 +10385,7 @@
         <v>0.939151775020453</v>
       </c>
       <c r="AO72" t="n" s="87">
-        <v>0.9998485557603289</v>
+        <v>0.9998235791794894</v>
       </c>
       <c r="AP72" t="n" s="87">
         <v>0.7077784326019355</v>
@@ -10532,11 +10394,9 @@
         <v>0.9443901118324252</v>
       </c>
       <c r="AR72" t="n" s="87">
-        <v>0.998395567713059</v>
-      </c>
-      <c r="AS72" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9981383960266723</v>
+      </c>
+      <c r="AS72" s="87"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10642,7 +10502,7 @@
         <v>0.7288768754737979</v>
       </c>
       <c r="AL73" t="n" s="87">
-        <v>0.7265511573438211</v>
+        <v>0.704322019426952</v>
       </c>
       <c r="AM73" t="n" s="87">
         <v>0.7088990697711566</v>
@@ -10651,7 +10511,7 @@
         <v>0.9669614187705935</v>
       </c>
       <c r="AO73" t="n" s="87">
-        <v>0.887724469644421</v>
+        <v>0.8784711353345401</v>
       </c>
       <c r="AP73" t="n" s="87">
         <v>0.6485073966269512</v>
@@ -10660,11 +10520,9 @@
         <v>0.8335211301889878</v>
       </c>
       <c r="AR73" t="n" s="87">
-        <v>0.34019426580834655</v>
-      </c>
-      <c r="AS73" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.3195495156707003</v>
+      </c>
+      <c r="AS73" s="87"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10790,9 +10648,7 @@
       <c r="AR74" t="n" s="87">
         <v>0.9999988174875176</v>
       </c>
-      <c r="AS74" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS74" s="87"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10898,7 +10754,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL75" t="n" s="87">
-        <v>0.9321406214975448</v>
+        <v>0.9300830264039219</v>
       </c>
       <c r="AM75" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -10907,7 +10763,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO75" t="n" s="87">
-        <v>0.9999371695597042</v>
+        <v>0.9999353742205809</v>
       </c>
       <c r="AP75" t="n" s="87">
         <v>0.9245907425397766</v>
@@ -10916,11 +10772,9 @@
         <v>0.999690995829434</v>
       </c>
       <c r="AR75" t="n" s="87">
-        <v>0.9999981944219303</v>
-      </c>
-      <c r="AS75" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999981495869156</v>
+      </c>
+      <c r="AS75" s="87"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -11026,7 +10880,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL76" t="n" s="87">
-        <v>0.8104258794514632</v>
+        <v>0.7937827154590396</v>
       </c>
       <c r="AM76" t="n" s="87">
         <v>0.7067659170765388</v>
@@ -11035,7 +10889,7 @@
         <v>0.9750891715516449</v>
       </c>
       <c r="AO76" t="n" s="87">
-        <v>0.9893488183859567</v>
+        <v>0.9883665739613867</v>
       </c>
       <c r="AP76" t="n" s="87">
         <v>0.8166422798834123</v>
@@ -11044,11 +10898,9 @@
         <v>0.9887341205336975</v>
       </c>
       <c r="AR76" t="n" s="87">
-        <v>0.998021957072264</v>
-      </c>
-      <c r="AS76" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9978456503697642</v>
+      </c>
+      <c r="AS76" s="87"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11154,7 +11006,7 @@
         <v>0.7288768754737979</v>
       </c>
       <c r="AL77" t="n" s="87">
-        <v>0.7038481750137398</v>
+        <v>0.6674359198844868</v>
       </c>
       <c r="AM77" t="n" s="87">
         <v>0.6670946672202771</v>
@@ -11163,7 +11015,7 @@
         <v>0.922800343255421</v>
       </c>
       <c r="AO77" t="n" s="87">
-        <v>0.7543810444816592</v>
+        <v>0.7250461421615181</v>
       </c>
       <c r="AP77" t="n" s="87">
         <v>0.6035082870698432</v>
@@ -11172,11 +11024,9 @@
         <v>0.7044715282498871</v>
       </c>
       <c r="AR77" t="n" s="87">
-        <v>0.1754737196108367</v>
-      </c>
-      <c r="AS77" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.15494523003379743</v>
+      </c>
+      <c r="AS77" s="87"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11282,7 +11132,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL78" t="n" s="87">
-        <v>0.9817286286200826</v>
+        <v>0.9810639404201726</v>
       </c>
       <c r="AM78" t="n" s="87">
         <v>0.6484987364743886</v>
@@ -11291,7 +11141,7 @@
         <v>0.9435241473874757</v>
       </c>
       <c r="AO78" t="n" s="87">
-        <v>0.99906242177615</v>
+        <v>0.9990315914516391</v>
       </c>
       <c r="AP78" t="n" s="87">
         <v>0.6276236141834872</v>
@@ -11300,11 +11150,9 @@
         <v>0.8827930109108002</v>
       </c>
       <c r="AR78" t="n" s="87">
-        <v>0.990865187774632</v>
-      </c>
-      <c r="AS78" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9906022342617764</v>
+      </c>
+      <c r="AS78" s="87"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11410,7 +11258,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL79" t="n" s="87">
-        <v>0.9502784718774369</v>
+        <v>0.9467227722612165</v>
       </c>
       <c r="AM79" t="n" s="87">
         <v>0.7348488255501566</v>
@@ -11419,7 +11267,7 @@
         <v>0.9797112827204653</v>
       </c>
       <c r="AO79" t="n" s="87">
-        <v>0.9999027360066393</v>
+        <v>0.9998970016846099</v>
       </c>
       <c r="AP79" t="n" s="87">
         <v>0.68588122483547</v>
@@ -11428,11 +11276,9 @@
         <v>0.9354835116728452</v>
       </c>
       <c r="AR79" t="n" s="87">
-        <v>0.9968552581957237</v>
-      </c>
-      <c r="AS79" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9966455399269989</v>
+      </c>
+      <c r="AS79" s="87"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -11538,7 +11384,7 @@
         <v>0.7223574221728242</v>
       </c>
       <c r="AL80" t="n" s="87">
-        <v>0.7231541764282043</v>
+        <v>0.7016696457944771</v>
       </c>
       <c r="AM80" t="n" s="87">
         <v>0.6988595131998482</v>
@@ -11547,7 +11393,7 @@
         <v>0.9704253573408728</v>
       </c>
       <c r="AO80" t="n" s="87">
-        <v>0.9598690756744033</v>
+        <v>0.9562883441625014</v>
       </c>
       <c r="AP80" t="n" s="87">
         <v>0.746194626414416</v>
@@ -11556,11 +11402,9 @@
         <v>0.9595362083747702</v>
       </c>
       <c r="AR80" t="n" s="87">
-        <v>0.8458978194742951</v>
-      </c>
-      <c r="AS80" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.834412076153532</v>
+      </c>
+      <c r="AS80" s="87"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11666,7 +11510,7 @@
         <v>0.6243132974360265</v>
       </c>
       <c r="AL81" t="n" s="87">
-        <v>0.8994698183791418</v>
+        <v>0.8877577489611812</v>
       </c>
       <c r="AM81" t="n" s="87">
         <v>0.6395286579331528</v>
@@ -11675,7 +11519,7 @@
         <v>0.9067140673335079</v>
       </c>
       <c r="AO81" t="n" s="87">
-        <v>0.9997553856189181</v>
+        <v>0.9997224141884202</v>
       </c>
       <c r="AP81" t="n" s="87">
         <v>0.7453276229866844</v>
@@ -11684,11 +11528,9 @@
         <v>0.9384942539002983</v>
       </c>
       <c r="AR81" t="n" s="87">
-        <v>0.9997729162363374</v>
-      </c>
-      <c r="AS81" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9997442575990321</v>
+      </c>
+      <c r="AS81" s="87"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -11794,7 +11636,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL82" t="n" s="87">
-        <v>0.794435552518354</v>
+        <v>0.7703983667737776</v>
       </c>
       <c r="AM82" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -11803,7 +11645,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO82" t="n" s="87">
-        <v>0.9821347180571764</v>
+        <v>0.9799450299958048</v>
       </c>
       <c r="AP82" t="n" s="87">
         <v>0.6638635943228971</v>
@@ -11812,11 +11654,9 @@
         <v>0.867566112994499</v>
       </c>
       <c r="AR82" t="n" s="87">
-        <v>0.7840894183484183</v>
-      </c>
-      <c r="AS82" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7634551197638091</v>
+      </c>
+      <c r="AS82" s="87"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11922,7 +11762,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL83" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM83" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -11931,7 +11771,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO83" t="n" s="87">
-        <v>0.9421003492691465</v>
+        <v>0.9353268977120699</v>
       </c>
       <c r="AP83" t="n" s="87">
         <v>0.6638635943228971</v>
@@ -11940,11 +11780,9 @@
         <v>0.8501504517539126</v>
       </c>
       <c r="AR83" t="n" s="87">
-        <v>0.5137876649884032</v>
-      </c>
-      <c r="AS83" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4843107292726083</v>
+      </c>
+      <c r="AS83" s="87"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12070,9 +11908,7 @@
       <c r="AR84" t="n" s="87">
         <v>0.9999999305410224</v>
       </c>
-      <c r="AS84" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS84" s="87"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12198,9 +12034,7 @@
       <c r="AR85" t="n" s="87">
         <v>0.9999999351298405</v>
       </c>
-      <c r="AS85" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS85" s="87"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12306,7 +12140,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL86" t="n" s="87">
-        <v>0.9672363513163879</v>
+        <v>0.9662043278843695</v>
       </c>
       <c r="AM86" t="n" s="87">
         <v>0.7250601357704712</v>
@@ -12315,7 +12149,7 @@
         <v>0.9844431826643092</v>
       </c>
       <c r="AO86" t="n" s="87">
-        <v>0.9999817499027362</v>
+        <v>0.9999812283941174</v>
       </c>
       <c r="AP86" t="n" s="87">
         <v>0.7807931548139603</v>
@@ -12324,11 +12158,9 @@
         <v>0.9888632412246775</v>
       </c>
       <c r="AR86" t="n" s="87">
-        <v>0.9998445535678996</v>
-      </c>
-      <c r="AS86" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9998406942245622</v>
+      </c>
+      <c r="AS86" s="87"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12434,7 +12266,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL87" t="n" s="87">
-        <v>0.9930381713946168</v>
+        <v>0.992781884333208</v>
       </c>
       <c r="AM87" t="n" s="87">
         <v>0.6684317408773736</v>
@@ -12443,7 +12275,7 @@
         <v>0.9588219045665133</v>
       </c>
       <c r="AO87" t="n" s="87">
-        <v>0.9999952263975709</v>
+        <v>0.999995069276125</v>
       </c>
       <c r="AP87" t="n" s="87">
         <v>0.728857373083982</v>
@@ -12452,11 +12284,9 @@
         <v>0.9756633416674695</v>
       </c>
       <c r="AR87" t="n" s="87">
-        <v>0.9999936746332347</v>
-      </c>
-      <c r="AS87" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999934908258589</v>
+      </c>
+      <c r="AS87" s="87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12562,7 +12392,7 @@
         <v>0.6030841232980093</v>
       </c>
       <c r="AL88" t="n" s="87">
-        <v>0.8791039560141741</v>
+        <v>0.8653743272112722</v>
       </c>
       <c r="AM88" t="n" s="87">
         <v>0.6260058343997381</v>
@@ -12571,7 +12401,7 @@
         <v>0.9219709074533384</v>
       </c>
       <c r="AO88" t="n" s="87">
-        <v>0.9997990788227613</v>
+        <v>0.9997719954307237</v>
       </c>
       <c r="AP88" t="n" s="87">
         <v>0.5367510001616825</v>
@@ -12580,11 +12410,9 @@
         <v>0.7821476732400167</v>
       </c>
       <c r="AR88" t="n" s="87">
-        <v>0.9924950860564267</v>
-      </c>
-      <c r="AS88" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9915557016057053</v>
+      </c>
+      <c r="AS88" s="87"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12690,7 +12518,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL89" t="n" s="87">
-        <v>0.9604423682966821</v>
+        <v>0.9577565693860332</v>
       </c>
       <c r="AM89" t="n" s="87">
         <v>0.7250601357704712</v>
@@ -12699,7 +12527,7 @@
         <v>0.9772542140082258</v>
       </c>
       <c r="AO89" t="n" s="87">
-        <v>0.9999749737453906</v>
+        <v>0.9999734113580719</v>
       </c>
       <c r="AP89" t="n" s="87">
         <v>0.8296294657502344</v>
@@ -12708,11 +12536,9 @@
         <v>0.9948229658373161</v>
       </c>
       <c r="AR89" t="n" s="87">
-        <v>0.9999397554475685</v>
-      </c>
-      <c r="AS89" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999364655828339</v>
+      </c>
+      <c r="AS89" s="87"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12838,9 +12664,7 @@
       <c r="AR90" t="n" s="87">
         <v>0.9999837274203693</v>
       </c>
-      <c r="AS90" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS90" s="87"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -12946,7 +12770,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL91" t="n" s="87">
-        <v>0.799890671897706</v>
+        <v>0.7763117600039336</v>
       </c>
       <c r="AM91" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -12955,7 +12779,7 @@
         <v>0.9514123114563973</v>
       </c>
       <c r="AO91" t="n" s="87">
-        <v>0.9479885340839866</v>
+        <v>0.9418614088297773</v>
       </c>
       <c r="AP91" t="n" s="87">
         <v>0.6433252274853579</v>
@@ -12964,11 +12788,9 @@
         <v>0.8113102916783343</v>
       </c>
       <c r="AR91" t="n" s="87">
-        <v>0.566129695212358</v>
-      </c>
-      <c r="AS91" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5369662270568131</v>
+      </c>
+      <c r="AS91" s="87"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -13074,7 +12896,7 @@
         <v>0.7288768754737979</v>
       </c>
       <c r="AL92" t="n" s="87">
-        <v>0.9886454383548434</v>
+        <v>0.9882293575944107</v>
       </c>
       <c r="AM92" t="n" s="87">
         <v>0.6816863713624443</v>
@@ -13083,7 +12905,7 @@
         <v>0.9666038363725746</v>
       </c>
       <c r="AO92" t="n" s="87">
-        <v>0.9999943828384876</v>
+        <v>0.9999942196105661</v>
       </c>
       <c r="AP92" t="n" s="87">
         <v>0.7238981443810448</v>
@@ -13092,11 +12914,9 @@
         <v>0.975734886435961</v>
       </c>
       <c r="AR92" t="n" s="87">
-        <v>0.9999901834369719</v>
-      </c>
-      <c r="AS92" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999898603299339</v>
+      </c>
+      <c r="AS92" s="87"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13202,7 +13022,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL93" t="n" s="87">
-        <v>0.8884372853570972</v>
+        <v>0.8847771052183344</v>
       </c>
       <c r="AM93" t="n" s="87">
         <v>0.7520057770280867</v>
@@ -13211,7 +13031,7 @@
         <v>0.9867757310166858</v>
       </c>
       <c r="AO93" t="n" s="87">
-        <v>0.9963439439792552</v>
+        <v>0.9962381024663699</v>
       </c>
       <c r="AP93" t="n" s="87">
         <v>0.7060498366970545</v>
@@ -13220,11 +13040,9 @@
         <v>0.9430514927686285</v>
       </c>
       <c r="AR93" t="n" s="87">
-        <v>0.9508994605089366</v>
-      </c>
-      <c r="AS93" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9493651582819885</v>
+      </c>
+      <c r="AS93" s="87"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13350,9 +13168,7 @@
       <c r="AR94" t="n" s="87">
         <v>0.9999988174875176</v>
       </c>
-      <c r="AS94" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS94" s="87"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -13458,7 +13274,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL95" t="n" s="87">
-        <v>0.8440049127031011</v>
+        <v>0.8397343885818914</v>
       </c>
       <c r="AM95" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -13467,7 +13283,7 @@
         <v>0.9853230135459327</v>
       </c>
       <c r="AO95" t="n" s="87">
-        <v>0.9897552908052929</v>
+        <v>0.9894656199489684</v>
       </c>
       <c r="AP95" t="n" s="87">
         <v>0.8419723802774827</v>
@@ -13476,11 +13292,9 @@
         <v>0.9941179029416071</v>
       </c>
       <c r="AR95" t="n" s="87">
-        <v>0.9877571248808031</v>
-      </c>
-      <c r="AS95" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9874569298972152</v>
+      </c>
+      <c r="AS95" s="87"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -13606,9 +13420,7 @@
       <c r="AR96" t="n" s="87">
         <v>0.999999596505987</v>
       </c>
-      <c r="AS96" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS96" s="87"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13734,9 +13546,7 @@
       <c r="AR97" t="n" s="87">
         <v>0.9999914851036203</v>
       </c>
-      <c r="AS97" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS97" s="87"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13862,9 +13672,7 @@
       <c r="AR98" t="n" s="87">
         <v>0.9939208238423116</v>
       </c>
-      <c r="AS98" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS98" s="87"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -13990,9 +13798,7 @@
       <c r="AR99" t="n" s="87">
         <v>0.9999987891285321</v>
       </c>
-      <c r="AS99" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS99" s="87"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14098,7 +13904,7 @@
         <v>0.6982871095163142</v>
       </c>
       <c r="AL100" t="n" s="87">
-        <v>0.7700157479939435</v>
+        <v>0.7457535157150295</v>
       </c>
       <c r="AM100" t="n" s="87">
         <v>0.673563909565081</v>
@@ -14107,7 +13913,7 @@
         <v>0.9307618898178233</v>
       </c>
       <c r="AO100" t="n" s="87">
-        <v>0.9290782942467928</v>
+        <v>0.9207310559208703</v>
       </c>
       <c r="AP100" t="n" s="87">
         <v>0.6811444306882947</v>
@@ -14116,11 +13922,9 @@
         <v>0.8960130618459272</v>
       </c>
       <c r="AR100" t="n" s="87">
-        <v>0.7323370848994707</v>
-      </c>
-      <c r="AS100" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7081118008484993</v>
+      </c>
+      <c r="AS100" s="87"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -14226,7 +14030,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL101" t="n" s="87">
-        <v>0.9502222261781826</v>
+        <v>0.9486827081682732</v>
       </c>
       <c r="AM101" t="n" s="87">
         <v>0.7447493785076839</v>
@@ -14235,7 +14039,7 @@
         <v>0.9891079706972324</v>
       </c>
       <c r="AO101" t="n" s="87">
-        <v>0.9999852658296773</v>
+        <v>0.9999848447894772</v>
       </c>
       <c r="AP101" t="n" s="87">
         <v>0.8955851154788965</v>
@@ -14244,11 +14048,9 @@
         <v>0.9992064438842495</v>
       </c>
       <c r="AR101" t="n" s="87">
-        <v>0.9999878617705188</v>
-      </c>
-      <c r="AS101" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999875603645902</v>
+      </c>
+      <c r="AS101" s="87"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -14354,7 +14156,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL102" t="n" s="87">
-        <v>0.794435552518354</v>
+        <v>0.7703983667737776</v>
       </c>
       <c r="AM102" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -14363,7 +14165,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO102" t="n" s="87">
-        <v>0.9837283136639037</v>
+        <v>0.9817303139269807</v>
       </c>
       <c r="AP102" t="n" s="87">
         <v>0.7442344979041973</v>
@@ -14372,11 +14174,9 @@
         <v>0.9551603662143997</v>
       </c>
       <c r="AR102" t="n" s="87">
-        <v>0.9277715744454257</v>
-      </c>
-      <c r="AS102" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9194582935680947</v>
+      </c>
+      <c r="AS102" s="87"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14482,7 +14282,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL103" t="n" s="87">
-        <v>0.7586153537260386</v>
+        <v>0.7388891224649358</v>
       </c>
       <c r="AM103" t="n" s="87">
         <v>0.7067659170765388</v>
@@ -14491,7 +14291,7 @@
         <v>0.9756914803944559</v>
       </c>
       <c r="AO103" t="n" s="87">
-        <v>0.963176259364225</v>
+        <v>0.9598782810083262</v>
       </c>
       <c r="AP103" t="n" s="87">
         <v>0.6860376245996936</v>
@@ -14500,11 +14300,9 @@
         <v>0.8986308422053598</v>
       </c>
       <c r="AR103" t="n" s="87">
-        <v>0.6436609589636341</v>
-      </c>
-      <c r="AS103" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.6238053928664846</v>
+      </c>
+      <c r="AS103" s="87"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14610,7 +14408,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL104" t="n" s="87">
-        <v>0.794435552518354</v>
+        <v>0.7703983667737776</v>
       </c>
       <c r="AM104" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -14619,7 +14417,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO104" t="n" s="87">
-        <v>0.9821347180571764</v>
+        <v>0.9799450299958048</v>
       </c>
       <c r="AP104" t="n" s="87">
         <v>0.6638635943228971</v>
@@ -14628,11 +14426,9 @@
         <v>0.867566112994499</v>
       </c>
       <c r="AR104" t="n" s="87">
-        <v>0.7840894183484183</v>
-      </c>
-      <c r="AS104" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7634551197638091</v>
+      </c>
+      <c r="AS104" s="87"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -14738,7 +14534,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL105" t="n" s="87">
-        <v>0.9472691692502385</v>
+        <v>0.9454205852990306</v>
       </c>
       <c r="AM105" t="n" s="87">
         <v>0.7520057770280867</v>
@@ -14747,7 +14543,7 @@
         <v>0.9749085970308722</v>
       </c>
       <c r="AO105" t="n" s="87">
-        <v>0.9969943141099498</v>
+        <v>0.9969072421354417</v>
       </c>
       <c r="AP105" t="n" s="87">
         <v>0.6778566102963556</v>
@@ -14756,11 +14552,9 @@
         <v>0.9035739432813075</v>
       </c>
       <c r="AR105" t="n" s="87">
-        <v>0.9616537550544549</v>
-      </c>
-      <c r="AS105" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9604415247602667</v>
+      </c>
+      <c r="AS105" s="87"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -14866,7 +14660,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL106" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM106" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -14875,7 +14669,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO106" t="n" s="87">
-        <v>0.9470725916405935</v>
+        <v>0.9408442984591098</v>
       </c>
       <c r="AP106" t="n" s="87">
         <v>0.7442344979041973</v>
@@ -14884,11 +14678,9 @@
         <v>0.9485810380543762</v>
       </c>
       <c r="AR106" t="n" s="87">
-        <v>0.7889250111246071</v>
-      </c>
-      <c r="AS106" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7686164697237113</v>
+      </c>
+      <c r="AS106" s="87"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14994,7 +14786,7 @@
         <v>0.7018656094635615</v>
       </c>
       <c r="AL107" t="n" s="87">
-        <v>0.7430704382816726</v>
+        <v>0.7368980984231015</v>
       </c>
       <c r="AM107" t="n" s="87">
         <v>0.7374867190884421</v>
@@ -15003,7 +14795,7 @@
         <v>0.9819747874315055</v>
       </c>
       <c r="AO107" t="n" s="87">
-        <v>0.9829324242018038</v>
+        <v>0.982453255772939</v>
       </c>
       <c r="AP107" t="n" s="87">
         <v>0.886786510281911</v>
@@ -15012,11 +14804,9 @@
         <v>0.9947312810699364</v>
       </c>
       <c r="AR107" t="n" s="87">
-        <v>0.9843884069908343</v>
-      </c>
-      <c r="AS107" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9840069485449292</v>
+      </c>
+      <c r="AS107" s="87"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15142,9 +14932,7 @@
       <c r="AR108" t="n" s="87">
         <v>0.9999999981848039</v>
       </c>
-      <c r="AS108" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS108" s="87"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15250,7 +15038,7 @@
         <v>0.7357696738053439</v>
       </c>
       <c r="AL109" t="n" s="87">
-        <v>0.686909787908504</v>
+        <v>0.6432696343815706</v>
       </c>
       <c r="AM109" t="n" s="87">
         <v>0.6415964545668246</v>
@@ -15259,7 +15047,7 @@
         <v>0.9103541507460702</v>
       </c>
       <c r="AO109" t="n" s="87">
-        <v>0.836261547027601</v>
+        <v>0.8089437522731338</v>
       </c>
       <c r="AP109" t="n" s="87">
         <v>0.6035437353117568</v>
@@ -15268,11 +15056,9 @@
         <v>0.6875033464008715</v>
       </c>
       <c r="AR109" t="n" s="87">
-        <v>0.2588439210991035</v>
-      </c>
-      <c r="AS109" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.22584977932467432</v>
+      </c>
+      <c r="AS109" s="87"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15378,7 +15164,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL110" t="n" s="87">
-        <v>0.8909076515518035</v>
+        <v>0.8802864533279896</v>
       </c>
       <c r="AM110" t="n" s="87">
         <v>0.7067659170765388</v>
@@ -15387,7 +15173,7 @@
         <v>0.9756914803944559</v>
       </c>
       <c r="AO110" t="n" s="87">
-        <v>0.9992005596084932</v>
+        <v>0.9991260332167144</v>
       </c>
       <c r="AP110" t="n" s="87">
         <v>0.6860376245996936</v>
@@ -15396,11 +15182,9 @@
         <v>0.9238279842303154</v>
       </c>
       <c r="AR110" t="n" s="87">
-        <v>0.9832019864784297</v>
-      </c>
-      <c r="AS110" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9817289304775437</v>
+      </c>
+      <c r="AS110" s="87"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15506,7 +15290,7 @@
         <v>0.7578864870708091</v>
       </c>
       <c r="AL111" t="n" s="87">
-        <v>0.7396587443784012</v>
+        <v>0.7115420770116624</v>
       </c>
       <c r="AM111" t="n" s="87">
         <v>0.6877785975383237</v>
@@ -15515,7 +15299,7 @@
         <v>0.9643290357150636</v>
       </c>
       <c r="AO111" t="n" s="87">
-        <v>0.9421003492691465</v>
+        <v>0.9353268977120699</v>
       </c>
       <c r="AP111" t="n" s="87">
         <v>0.6638635943228971</v>
@@ -15524,11 +15308,9 @@
         <v>0.8501504517539126</v>
       </c>
       <c r="AR111" t="n" s="87">
-        <v>0.5137876649884032</v>
-      </c>
-      <c r="AS111" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4843107292726083</v>
+      </c>
+      <c r="AS111" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
